--- a/simulation_data/iterative_algorithm/i_error_level_2_percent_water_40.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_2_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.99610724273245</v>
+        <v>89.8145275817279</v>
       </c>
       <c r="D2" t="n">
-        <v>2.565242413299644</v>
+        <v>2.654629628396909</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.84475026859343</v>
+        <v>89.25702474955568</v>
       </c>
       <c r="D3" t="n">
-        <v>2.703496163029289</v>
+        <v>2.357736413323703</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.89463397696183</v>
+        <v>88.06979822369418</v>
       </c>
       <c r="D4" t="n">
-        <v>2.845099299323601</v>
+        <v>2.495999932011284</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.95835184206555</v>
+        <v>87.17721189390055</v>
       </c>
       <c r="D5" t="n">
-        <v>2.640940379176182</v>
+        <v>2.50215752708282</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.89755338016563</v>
+        <v>86.06025959473013</v>
       </c>
       <c r="D6" t="n">
-        <v>2.552103741251784</v>
+        <v>2.34243364861449</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.06850837500616</v>
+        <v>84.89312882557128</v>
       </c>
       <c r="D7" t="n">
-        <v>2.362289667023012</v>
+        <v>2.602845396046336</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.36568618592736</v>
+        <v>83.8630096310377</v>
       </c>
       <c r="D8" t="n">
-        <v>2.38489039871985</v>
+        <v>2.275070132103107</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.53241847286412</v>
+        <v>82.96334073468525</v>
       </c>
       <c r="D9" t="n">
-        <v>2.449247231742689</v>
+        <v>2.145073748531062</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.91609225680929</v>
+        <v>81.67167305780737</v>
       </c>
       <c r="D10" t="n">
-        <v>2.657132784595543</v>
+        <v>2.493707587418514</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.80467562938972</v>
+        <v>81.14028185896473</v>
       </c>
       <c r="D11" t="n">
-        <v>2.461314836692757</v>
+        <v>2.270690844262592</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.75150301055915</v>
+        <v>79.70732203358975</v>
       </c>
       <c r="D12" t="n">
-        <v>2.389531894542407</v>
+        <v>2.293386122359637</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.15024719918445</v>
+        <v>78.7425288204705</v>
       </c>
       <c r="D13" t="n">
-        <v>2.29223362701843</v>
+        <v>2.377084796132151</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.3137293223915</v>
+        <v>78.03143430589741</v>
       </c>
       <c r="D14" t="n">
-        <v>2.491375996088637</v>
+        <v>2.792561479910803</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.40769327115795</v>
+        <v>77.17602403668513</v>
       </c>
       <c r="D15" t="n">
-        <v>2.662323972692391</v>
+        <v>2.29496700532078</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.90982224511039</v>
+        <v>76.02946001870225</v>
       </c>
       <c r="D16" t="n">
-        <v>2.839315042352279</v>
+        <v>2.578493538370047</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.04475029079295</v>
+        <v>75.08984820417459</v>
       </c>
       <c r="D17" t="n">
-        <v>2.779615848571009</v>
+        <v>2.538839970337194</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.13766696154013</v>
+        <v>74.20588530710467</v>
       </c>
       <c r="D18" t="n">
-        <v>2.673697165627024</v>
+        <v>2.608634709695757</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.21643864662816</v>
+        <v>73.30148757857752</v>
       </c>
       <c r="D19" t="n">
-        <v>2.787589131971902</v>
+        <v>2.279268337523756</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.0601335879566</v>
+        <v>72.08498677822305</v>
       </c>
       <c r="D20" t="n">
-        <v>2.292322704265161</v>
+        <v>2.359790892348645</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.07671887409268</v>
+        <v>71.42852108242897</v>
       </c>
       <c r="D21" t="n">
-        <v>2.796950386222111</v>
+        <v>2.701115842755346</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.43019013983725</v>
+        <v>70.18816314444724</v>
       </c>
       <c r="D22" t="n">
-        <v>2.809863734260946</v>
+        <v>2.433763910721476</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.48119023487421</v>
+        <v>69.00613541407608</v>
       </c>
       <c r="D23" t="n">
-        <v>2.88924301471063</v>
+        <v>2.443239533802242</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.11707428109537</v>
+        <v>68.00598850190806</v>
       </c>
       <c r="D24" t="n">
-        <v>2.544491314058503</v>
+        <v>2.300926095713522</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.13306771810647</v>
+        <v>66.59060479976398</v>
       </c>
       <c r="D25" t="n">
-        <v>2.76340171224654</v>
+        <v>2.199710259098465</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.22104205582924</v>
+        <v>65.710722947862</v>
       </c>
       <c r="D26" t="n">
-        <v>2.503013276566719</v>
+        <v>2.522326885013424</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.07364349681002</v>
+        <v>65.13435824980883</v>
       </c>
       <c r="D27" t="n">
-        <v>2.911757555897095</v>
+        <v>2.641223561883413</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.79471545987003</v>
+        <v>63.5579791427848</v>
       </c>
       <c r="D28" t="n">
-        <v>2.373469102244434</v>
+        <v>2.046834131333219</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.31498770210415</v>
+        <v>63.17880324854818</v>
       </c>
       <c r="D29" t="n">
-        <v>2.408302509685543</v>
+        <v>2.459710249881446</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.2729597264123</v>
+        <v>62.14884383419627</v>
       </c>
       <c r="D30" t="n">
-        <v>2.54067810490367</v>
+        <v>2.490307874176364</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.23738763995451</v>
+        <v>60.68488309414656</v>
       </c>
       <c r="D31" t="n">
-        <v>2.811982312404325</v>
+        <v>2.399485910226929</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.8996296112471</v>
+        <v>60.05639478846987</v>
       </c>
       <c r="D32" t="n">
-        <v>3.124897347512699</v>
+        <v>2.642038474178499</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.2199967034494</v>
+        <v>58.90094475016005</v>
       </c>
       <c r="D33" t="n">
-        <v>2.517974746437933</v>
+        <v>2.474960068246282</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.96046881820065</v>
+        <v>58.36779629080168</v>
       </c>
       <c r="D34" t="n">
-        <v>2.584807585994848</v>
+        <v>2.636911768073176</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.22915407283556</v>
+        <v>56.99210008831986</v>
       </c>
       <c r="D35" t="n">
-        <v>2.869238915978924</v>
+        <v>2.537110374470942</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.65110958852687</v>
+        <v>55.42452667253889</v>
       </c>
       <c r="D36" t="n">
-        <v>2.907718035601274</v>
+        <v>2.457951783004613</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.08642922290241</v>
+        <v>55.00383965776098</v>
       </c>
       <c r="D37" t="n">
-        <v>2.638111772768482</v>
+        <v>2.59196303623829</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.02741960689931</v>
+        <v>54.04310730977764</v>
       </c>
       <c r="D38" t="n">
-        <v>2.860584790330762</v>
+        <v>2.359702561865205</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.85507353485685</v>
+        <v>52.96621649790373</v>
       </c>
       <c r="D39" t="n">
-        <v>2.441645288852469</v>
+        <v>2.57822706063912</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.92309385597401</v>
+        <v>52.03631281894456</v>
       </c>
       <c r="D40" t="n">
-        <v>2.417575909459602</v>
+        <v>2.374085714728232</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.08976374305294</v>
+        <v>51.31065778495544</v>
       </c>
       <c r="D41" t="n">
-        <v>2.496205855953367</v>
+        <v>2.871633597349349</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.60811710773314</v>
+        <v>49.93990298968602</v>
       </c>
       <c r="D42" t="n">
-        <v>2.794959303695044</v>
+        <v>2.505902563588918</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.84172368281712</v>
+        <v>48.97556378050171</v>
       </c>
       <c r="D43" t="n">
-        <v>2.90497459495014</v>
+        <v>2.331253164930845</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.89955843457096</v>
+        <v>48.2108291845507</v>
       </c>
       <c r="D44" t="n">
-        <v>2.652139917876055</v>
+        <v>2.820775149157781</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.90439450883234</v>
+        <v>47.37416917014064</v>
       </c>
       <c r="D45" t="n">
-        <v>2.394569633073959</v>
+        <v>2.309077997756256</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.37329430130993</v>
+        <v>46.06033903380409</v>
       </c>
       <c r="D46" t="n">
-        <v>2.72071161561859</v>
+        <v>2.911627437736167</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.07167123550048</v>
+        <v>44.74971302691572</v>
       </c>
       <c r="D47" t="n">
-        <v>2.529002616028767</v>
+        <v>2.560011497926852</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.1778161769938</v>
+        <v>44.32553169999407</v>
       </c>
       <c r="D48" t="n">
-        <v>2.474154213907265</v>
+        <v>2.557164182545462</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.08165409044322</v>
+        <v>43.24542416003246</v>
       </c>
       <c r="D49" t="n">
-        <v>2.934435444598056</v>
+        <v>2.705677213308716</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.9475507783819</v>
+        <v>42.1605914143472</v>
       </c>
       <c r="D50" t="n">
-        <v>2.72304628182805</v>
+        <v>2.577579206068934</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.6120443490847</v>
+        <v>41.30312482868677</v>
       </c>
       <c r="D51" t="n">
-        <v>2.494607607611602</v>
+        <v>2.507961076561492</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.77336216262083</v>
+        <v>40.00242179663787</v>
       </c>
       <c r="D52" t="n">
-        <v>2.997709572125838</v>
+        <v>2.855348652770241</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.80907353901032</v>
+        <v>38.69127224386029</v>
       </c>
       <c r="D53" t="n">
-        <v>2.466413607179836</v>
+        <v>2.280925277695079</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.83981081987778</v>
+        <v>37.48600109932075</v>
       </c>
       <c r="D54" t="n">
-        <v>2.49560494063057</v>
+        <v>2.699398595442655</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.94319216964598</v>
+        <v>37.19053608150634</v>
       </c>
       <c r="D55" t="n">
-        <v>2.9191320613628</v>
+        <v>2.749741190704158</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.83948584061444</v>
+        <v>36.00857874469936</v>
       </c>
       <c r="D56" t="n">
-        <v>2.517355479125522</v>
+        <v>2.860970341816531</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.9504466424503</v>
+        <v>35.10500237327035</v>
       </c>
       <c r="D57" t="n">
-        <v>2.723537796279675</v>
+        <v>2.33617722358542</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.20913360810046</v>
+        <v>34.26449462949162</v>
       </c>
       <c r="D58" t="n">
-        <v>2.835663081218724</v>
+        <v>2.509029674792736</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.91485779463713</v>
+        <v>32.77624273717466</v>
       </c>
       <c r="D59" t="n">
-        <v>2.383962332925935</v>
+        <v>2.34474402973255</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.55591003035754</v>
+        <v>32.15109904948709</v>
       </c>
       <c r="D60" t="n">
-        <v>2.654950197813307</v>
+        <v>2.664331313119033</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.44692071507094</v>
+        <v>30.96000050927645</v>
       </c>
       <c r="D61" t="n">
-        <v>2.407030517575396</v>
+        <v>2.86341613759125</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.22213300056194</v>
+        <v>29.94457072915773</v>
       </c>
       <c r="D62" t="n">
-        <v>2.546143821690692</v>
+        <v>2.692561055631622</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.86927081396797</v>
+        <v>28.91191691741376</v>
       </c>
       <c r="D63" t="n">
-        <v>2.783196759840063</v>
+        <v>2.334436690699712</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.92197142625034</v>
+        <v>27.86600960092112</v>
       </c>
       <c r="D64" t="n">
-        <v>2.638391837026872</v>
+        <v>2.490307378917911</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.57956792650821</v>
+        <v>27.30846461228182</v>
       </c>
       <c r="D65" t="n">
-        <v>2.458473235180592</v>
+        <v>2.576274292531685</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.5000719720406</v>
+        <v>25.95945171465519</v>
       </c>
       <c r="D66" t="n">
-        <v>2.49280484021536</v>
+        <v>2.808691048114856</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.91068668473023</v>
+        <v>24.39645138526704</v>
       </c>
       <c r="D67" t="n">
-        <v>2.972092883594834</v>
+        <v>2.823816585726813</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.86557691707521</v>
+        <v>24.074897698665</v>
       </c>
       <c r="D68" t="n">
-        <v>2.467615375380354</v>
+        <v>2.733050802684406</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.03438026111094</v>
+        <v>23.30538203950187</v>
       </c>
       <c r="D69" t="n">
-        <v>3.092967795150903</v>
+        <v>2.653814259816103</v>
       </c>
     </row>
   </sheetData>
